--- a/CNIntelligibility/transposedIntelligibility_simhash.xlsx
+++ b/CNIntelligibility/transposedIntelligibility_simhash.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,57 +516,47 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>i66</t>
+          <t>i70</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>i70</t>
+          <t>s58</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>s58</t>
+          <t>s62</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>s62</t>
+          <t>s66</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>s66</t>
+          <t>s70</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>s70</t>
+          <t>v58</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>v58</t>
+          <t>v62</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>v62</t>
+          <t>v66</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>v66</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
           <t>v70</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>空白</t>
         </is>
       </c>
     </row>
@@ -622,37 +612,31 @@
         <v>0.5703125</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5703125</v>
+        <v>0.46875</v>
       </c>
       <c r="R2" t="n">
-        <v>0.46875</v>
+        <v>0.4453125</v>
       </c>
       <c r="S2" t="n">
         <v>0.4453125</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4453125</v>
+        <v>0.84375</v>
       </c>
       <c r="U2" t="n">
-        <v>0.84375</v>
+        <v>0.5234375</v>
       </c>
       <c r="V2" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.5234375</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.5859375</v>
-      </c>
       <c r="X2" t="n">
-        <v>0.5234375</v>
+        <v>0.625</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.515625</v>
+        <v>0.5078125</v>
       </c>
     </row>
     <row r="3">
@@ -707,38 +691,32 @@
         <v>0.5078125</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5078125</v>
+        <v>0.421875</v>
       </c>
       <c r="R3" t="n">
-        <v>0.421875</v>
+        <v>0.46875</v>
       </c>
       <c r="S3" t="n">
         <v>0.46875</v>
       </c>
       <c r="T3" t="n">
-        <v>0.46875</v>
+        <v>0.3828125</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3828125</v>
+        <v>0.765625</v>
       </c>
       <c r="V3" t="n">
-        <v>0.765625</v>
+        <v>0.5078125</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5078125</v>
+        <v>0.453125</v>
       </c>
       <c r="X3" t="n">
-        <v>0.453125</v>
+        <v>0.5546875</v>
       </c>
       <c r="Y3" t="n">
         <v>0.5546875</v>
       </c>
-      <c r="Z3" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.4453125</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -792,37 +770,31 @@
         <v>0.53125</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="R4" t="n">
         <v>0.53125</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.5390625</v>
-      </c>
       <c r="S4" t="n">
-        <v>0.53125</v>
+        <v>0.4921875</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4921875</v>
+        <v>0.4375</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4375</v>
+        <v>0.3828125</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3828125</v>
+        <v>0.5859375</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5859375</v>
+        <v>0.6015625</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6015625</v>
+        <v>0.78125</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.78125</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.4921875</v>
+        <v>0.5078125</v>
       </c>
     </row>
     <row r="5">
@@ -877,37 +849,31 @@
         <v>0.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5</v>
+        <v>0.6875</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6875</v>
+        <v>0.5234375</v>
       </c>
       <c r="S5" t="n">
-        <v>0.5234375</v>
+        <v>0.5546875</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5546875</v>
+        <v>0.4609375</v>
       </c>
       <c r="U5" t="n">
         <v>0.4609375</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4609375</v>
+        <v>0.46875</v>
       </c>
       <c r="W5" t="n">
-        <v>0.46875</v>
+        <v>0.515625</v>
       </c>
       <c r="X5" t="n">
-        <v>0.515625</v>
+        <v>0.5078125</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="Z5" t="n">
         <v>0.578125</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.453125</v>
       </c>
     </row>
     <row r="6">
@@ -962,37 +928,31 @@
         <v>0.4609375</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4609375</v>
+        <v>0.578125</v>
       </c>
       <c r="R6" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="U6" t="n">
         <v>0.578125</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.5859375</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.5234375</v>
-      </c>
       <c r="V6" t="n">
-        <v>0.578125</v>
+        <v>0.5078125</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5078125</v>
+        <v>0.7109375</v>
       </c>
       <c r="X6" t="n">
-        <v>0.7109375</v>
+        <v>0.46875</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="Z6" t="n">
         <v>0.5390625</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.40625</v>
       </c>
     </row>
     <row r="7">
@@ -1047,37 +1007,31 @@
         <v>0.4609375</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4609375</v>
+        <v>0.7734375</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7734375</v>
+        <v>0.65625</v>
       </c>
       <c r="S7" t="n">
-        <v>0.65625</v>
+        <v>0.6171875</v>
       </c>
       <c r="T7" t="n">
-        <v>0.6171875</v>
+        <v>0.484375</v>
       </c>
       <c r="U7" t="n">
-        <v>0.484375</v>
+        <v>0.4375</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4375</v>
+        <v>0.46875</v>
       </c>
       <c r="W7" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0.46875</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.484375</v>
       </c>
     </row>
     <row r="8">
@@ -1132,37 +1086,31 @@
         <v>0.4375</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4375</v>
+        <v>0.3984375</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3984375</v>
+        <v>0.59375</v>
       </c>
       <c r="S8" t="n">
-        <v>0.59375</v>
+        <v>0.5625</v>
       </c>
       <c r="T8" t="n">
-        <v>0.5625</v>
+        <v>0.4921875</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4921875</v>
+        <v>0.546875</v>
       </c>
       <c r="V8" t="n">
-        <v>0.546875</v>
+        <v>0.5234375</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5234375</v>
+        <v>0.5390625</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5390625</v>
+        <v>0.5546875</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="Z8" t="n">
         <v>0.6953125</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.4453125</v>
       </c>
     </row>
     <row r="9">
@@ -1217,37 +1165,31 @@
         <v>0.484375</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.7265625</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="T9" t="n">
         <v>0.484375</v>
       </c>
-      <c r="R9" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.7265625</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.59375</v>
-      </c>
       <c r="U9" t="n">
-        <v>0.484375</v>
+        <v>0.4609375</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4609375</v>
+        <v>0.609375</v>
       </c>
       <c r="W9" t="n">
-        <v>0.609375</v>
+        <v>0.578125</v>
       </c>
       <c r="X9" t="n">
-        <v>0.578125</v>
+        <v>0.5234375</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="Z9" t="n">
         <v>0.65625</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.453125</v>
       </c>
     </row>
     <row r="10">
@@ -1302,37 +1244,31 @@
         <v>0.6015625</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6015625</v>
+        <v>0.515625</v>
       </c>
       <c r="R10" t="n">
-        <v>0.515625</v>
+        <v>0.4609375</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4609375</v>
+        <v>0.734375</v>
       </c>
       <c r="T10" t="n">
-        <v>0.734375</v>
+        <v>0.421875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.421875</v>
+        <v>0.53125</v>
       </c>
       <c r="V10" t="n">
-        <v>0.53125</v>
+        <v>0.609375</v>
       </c>
       <c r="W10" t="n">
-        <v>0.609375</v>
+        <v>0.5</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5</v>
+        <v>0.515625</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="Z10" t="n">
         <v>0.6328125</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.4765625</v>
       </c>
     </row>
     <row r="11">
@@ -1387,37 +1323,31 @@
         <v>0.59375</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.59375</v>
+        <v>0.46875</v>
       </c>
       <c r="R11" t="n">
-        <v>0.46875</v>
+        <v>0.5078125</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5078125</v>
+        <v>0.4609375</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4609375</v>
+        <v>0.4765625</v>
       </c>
       <c r="U11" t="n">
+        <v>0.71875</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="X11" t="n">
         <v>0.4765625</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.734375</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.5234375</v>
-      </c>
       <c r="Y11" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="Z11" t="n">
         <v>0.78125</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.46875</v>
       </c>
     </row>
     <row r="12">
@@ -1465,42 +1395,38 @@
       <c r="N12" t="n">
         <v>0.546875</v>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>0.8125</v>
+      </c>
       <c r="P12" t="n">
         <v>0.453125</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8125</v>
+        <v>0.5859375</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5859375</v>
+        <v>0.5</v>
       </c>
       <c r="S12" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.3984375</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="X12" t="n">
         <v>0.5</v>
       </c>
-      <c r="T12" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.6796875</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.3984375</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.515625</v>
-      </c>
       <c r="Y12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z12" t="n">
         <v>0.546875</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="13">
@@ -1555,37 +1481,31 @@
         <v>0.3671875</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3671875</v>
+        <v>0.546875</v>
       </c>
       <c r="R13" t="n">
-        <v>0.546875</v>
+        <v>0.5390625</v>
       </c>
       <c r="S13" t="n">
-        <v>0.5390625</v>
+        <v>0.53125</v>
       </c>
       <c r="T13" t="n">
-        <v>0.53125</v>
+        <v>0.640625</v>
       </c>
       <c r="U13" t="n">
-        <v>0.640625</v>
+        <v>0.515625</v>
       </c>
       <c r="V13" t="n">
-        <v>0.515625</v>
+        <v>0.5078125</v>
       </c>
       <c r="W13" t="n">
-        <v>0.5078125</v>
+        <v>0.4921875</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4921875</v>
+        <v>0.4296875</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4296875</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>0.4921875</v>
+        <v>0.4609375</v>
       </c>
     </row>
     <row r="14">
@@ -1640,37 +1560,31 @@
         <v>0.4453125</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4453125</v>
+        <v>0.6484375</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6484375</v>
+        <v>0.5</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="T14" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.8203125</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="X14" t="n">
         <v>0.5625</v>
       </c>
-      <c r="U14" t="n">
-        <v>0.6015625</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0.8203125</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.6875</v>
-      </c>
       <c r="Y14" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="Z14" t="n">
         <v>0.5390625</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="15">
@@ -1725,37 +1639,31 @@
         <v>0.5390625</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5390625</v>
+        <v>0.5859375</v>
       </c>
       <c r="R15" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="W15" t="n">
         <v>0.5859375</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.578125</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.46875</v>
-      </c>
       <c r="X15" t="n">
-        <v>0.5859375</v>
+        <v>0.5703125</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="Z15" t="n">
         <v>0.5625</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.4140625</v>
       </c>
     </row>
     <row r="16">
@@ -1810,37 +1718,31 @@
         <v>0.546875</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.546875</v>
+        <v>0.6328125</v>
       </c>
       <c r="R16" t="n">
-        <v>0.6328125</v>
+        <v>0.5078125</v>
       </c>
       <c r="S16" t="n">
-        <v>0.5078125</v>
+        <v>0.53125</v>
       </c>
       <c r="T16" t="n">
-        <v>0.53125</v>
+        <v>0.3984375</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3984375</v>
+        <v>0.5</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="W16" t="n">
         <v>0.59375</v>
       </c>
       <c r="X16" t="n">
-        <v>0.59375</v>
+        <v>0.4375</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="Z16" t="n">
         <v>0.4765625</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.4140625</v>
       </c>
     </row>
     <row r="17">
@@ -1895,37 +1797,31 @@
         <v>0.4765625</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.4765625</v>
+        <v>0.6328125</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6328125</v>
+        <v>0.4921875</v>
       </c>
       <c r="S17" t="n">
-        <v>0.4921875</v>
+        <v>0.5703125</v>
       </c>
       <c r="T17" t="n">
-        <v>0.5703125</v>
+        <v>0.46875</v>
       </c>
       <c r="U17" t="n">
-        <v>0.46875</v>
+        <v>0.4453125</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4453125</v>
+        <v>0.4921875</v>
       </c>
       <c r="W17" t="n">
-        <v>0.4921875</v>
+        <v>0.9296875</v>
       </c>
       <c r="X17" t="n">
-        <v>0.9296875</v>
+        <v>0.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z17" t="n">
         <v>0.484375</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.4765625</v>
       </c>
     </row>
     <row r="18">
@@ -1980,37 +1876,31 @@
         <v>0.515625</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.515625</v>
+        <v>0.6875</v>
       </c>
       <c r="R18" t="n">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5</v>
+        <v>0.640625</v>
       </c>
       <c r="T18" t="n">
-        <v>0.640625</v>
+        <v>0.53125</v>
       </c>
       <c r="U18" t="n">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="V18" t="n">
-        <v>0.59375</v>
+        <v>0.578125</v>
       </c>
       <c r="W18" t="n">
-        <v>0.578125</v>
+        <v>0.5078125</v>
       </c>
       <c r="X18" t="n">
-        <v>0.5078125</v>
+        <v>0.421875</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="Z18" t="n">
         <v>0.5625</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="19">
@@ -2065,37 +1955,31 @@
         <v>0.5546875</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5546875</v>
+        <v>0.4296875</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4296875</v>
+        <v>0.5390625</v>
       </c>
       <c r="S19" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="T19" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.484375</v>
-      </c>
       <c r="V19" t="n">
-        <v>0.5390625</v>
+        <v>0.6328125</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6328125</v>
+        <v>0.5859375</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5859375</v>
+        <v>0.53125</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.421875</v>
+        <v>0.5078125</v>
       </c>
     </row>
     <row r="20">
@@ -2150,37 +2034,31 @@
         <v>0.6484375</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6484375</v>
+        <v>0.5390625</v>
       </c>
       <c r="R20" t="n">
-        <v>0.5390625</v>
+        <v>0.6015625</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6015625</v>
+        <v>0.6875</v>
       </c>
       <c r="T20" t="n">
-        <v>0.6875</v>
+        <v>0.5546875</v>
       </c>
       <c r="U20" t="n">
-        <v>0.5546875</v>
+        <v>0.4921875</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4921875</v>
+        <v>0.6640625</v>
       </c>
       <c r="W20" t="n">
-        <v>0.6640625</v>
+        <v>0.5</v>
       </c>
       <c r="X20" t="n">
-        <v>0.5</v>
+        <v>0.546875</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="Z20" t="n">
         <v>0.484375</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>0.4140625</v>
       </c>
     </row>
     <row r="21">
@@ -2235,37 +2113,31 @@
         <v>0.65625</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.65625</v>
+        <v>0.5390625</v>
       </c>
       <c r="R21" t="n">
         <v>0.5390625</v>
       </c>
       <c r="S21" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="T21" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="T21" t="n">
-        <v>0.859375</v>
-      </c>
       <c r="U21" t="n">
-        <v>0.5390625</v>
+        <v>0.5</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5</v>
+        <v>0.875</v>
       </c>
       <c r="W21" t="n">
-        <v>0.875</v>
+        <v>0.5703125</v>
       </c>
       <c r="X21" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="Y21" t="n">
         <v>0.5703125</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.4140625</v>
       </c>
     </row>
     <row r="22">
@@ -2320,37 +2192,31 @@
         <v>0.703125</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.703125</v>
+        <v>0.53125</v>
       </c>
       <c r="R22" t="n">
-        <v>0.53125</v>
+        <v>0.5703125</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5703125</v>
+        <v>0.4765625</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4765625</v>
+        <v>0.5390625</v>
       </c>
       <c r="U22" t="n">
         <v>0.5390625</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5390625</v>
+        <v>0.75</v>
       </c>
       <c r="W22" t="n">
-        <v>0.75</v>
+        <v>0.4453125</v>
       </c>
       <c r="X22" t="n">
-        <v>0.4453125</v>
+        <v>0.6015625</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6015625</v>
-      </c>
-      <c r="Z22" t="n">
         <v>0.625</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.4375</v>
       </c>
     </row>
     <row r="23">
@@ -2405,37 +2271,31 @@
         <v>0.7734375</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7734375</v>
+        <v>0.515625</v>
       </c>
       <c r="R23" t="n">
-        <v>0.515625</v>
+        <v>0.4375</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4375</v>
+        <v>0.484375</v>
       </c>
       <c r="T23" t="n">
-        <v>0.484375</v>
+        <v>0.7421875</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7421875</v>
+        <v>0.4921875</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4921875</v>
+        <v>0.3984375</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3984375</v>
+        <v>0.5078125</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5078125</v>
+        <v>0.5703125</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="Z23" t="n">
         <v>0.4765625</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.3828125</v>
       </c>
     </row>
     <row r="24">
@@ -2490,37 +2350,31 @@
         <v>0.4609375</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4609375</v>
+        <v>0.4453125</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4453125</v>
+        <v>0.4921875</v>
       </c>
       <c r="S24" t="n">
-        <v>0.4921875</v>
+        <v>0.53125</v>
       </c>
       <c r="T24" t="n">
-        <v>0.53125</v>
+        <v>0.609375</v>
       </c>
       <c r="U24" t="n">
-        <v>0.609375</v>
+        <v>0.4765625</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4765625</v>
+        <v>0.546875</v>
       </c>
       <c r="W24" t="n">
-        <v>0.546875</v>
+        <v>0.59375</v>
       </c>
       <c r="X24" t="n">
-        <v>0.59375</v>
+        <v>0.5859375</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.5859375</v>
-      </c>
-      <c r="Z24" t="n">
         <v>0.46875</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.515625</v>
       </c>
     </row>
     <row r="25">
@@ -2575,37 +2429,31 @@
         <v>0.5625</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.5625</v>
+        <v>0.4296875</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4296875</v>
+        <v>0.4921875</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4921875</v>
+        <v>0.515625</v>
       </c>
       <c r="T25" t="n">
-        <v>0.515625</v>
+        <v>0.546875</v>
       </c>
       <c r="U25" t="n">
-        <v>0.546875</v>
+        <v>0.625</v>
       </c>
       <c r="V25" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="X25" t="n">
         <v>0.625</v>
       </c>
-      <c r="W25" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.4765625</v>
-      </c>
       <c r="Y25" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.4453125</v>
+        <v>0.4609375</v>
       </c>
     </row>
     <row r="26">
@@ -2660,37 +2508,31 @@
         <v>0.5078125</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.5078125</v>
+        <v>0.515625</v>
       </c>
       <c r="R26" t="n">
-        <v>0.515625</v>
+        <v>0.4375</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4375</v>
+        <v>0.4609375</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4609375</v>
+        <v>0.8203125</v>
       </c>
       <c r="U26" t="n">
-        <v>0.8203125</v>
+        <v>0.5078125</v>
       </c>
       <c r="V26" t="n">
-        <v>0.5078125</v>
+        <v>0.546875</v>
       </c>
       <c r="W26" t="n">
-        <v>0.546875</v>
+        <v>0.5078125</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5078125</v>
+        <v>0.5703125</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="Z26" t="n">
         <v>0.53125</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0.421875</v>
       </c>
     </row>
     <row r="27">
@@ -2745,37 +2587,31 @@
         <v>0.4453125</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.4453125</v>
+        <v>0.515625</v>
       </c>
       <c r="R27" t="n">
-        <v>0.515625</v>
+        <v>0.4609375</v>
       </c>
       <c r="S27" t="n">
-        <v>0.4609375</v>
+        <v>0.515625</v>
       </c>
       <c r="T27" t="n">
-        <v>0.515625</v>
+        <v>0.53125</v>
       </c>
       <c r="U27" t="n">
         <v>0.53125</v>
       </c>
       <c r="V27" t="n">
-        <v>0.53125</v>
+        <v>0.4921875</v>
       </c>
       <c r="W27" t="n">
-        <v>0.4921875</v>
+        <v>0.5625</v>
       </c>
       <c r="X27" t="n">
-        <v>0.5625</v>
+        <v>0.671875</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="Z27" t="n">
         <v>0.5234375</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0.4765625</v>
       </c>
     </row>
     <row r="28">
@@ -2830,37 +2666,31 @@
         <v>0.5546875</v>
       </c>
       <c r="Q28" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="T28" t="n">
         <v>0.5546875</v>
       </c>
-      <c r="R28" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0.4609375</v>
-      </c>
       <c r="U28" t="n">
-        <v>0.5546875</v>
+        <v>0.453125</v>
       </c>
       <c r="V28" t="n">
-        <v>0.453125</v>
+        <v>0.515625</v>
       </c>
       <c r="W28" t="n">
-        <v>0.515625</v>
+        <v>0.609375</v>
       </c>
       <c r="X28" t="n">
-        <v>0.609375</v>
+        <v>0.7578125</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.7578125</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0.4609375</v>
+        <v>0.4921875</v>
       </c>
     </row>
     <row r="29">
@@ -2915,37 +2745,31 @@
         <v>0.4921875</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.4921875</v>
+        <v>0.59375</v>
       </c>
       <c r="R29" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="W29" t="n">
         <v>0.59375</v>
       </c>
-      <c r="S29" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.5390625</v>
-      </c>
       <c r="X29" t="n">
-        <v>0.59375</v>
+        <v>0.453125</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0.375</v>
+        <v>0.515625</v>
       </c>
     </row>
     <row r="30">
@@ -3000,37 +2824,31 @@
         <v>0.546875</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.546875</v>
+        <v>0.5234375</v>
       </c>
       <c r="R30" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="S30" t="n">
         <v>0.5234375</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.59375</v>
       </c>
       <c r="T30" t="n">
         <v>0.5234375</v>
       </c>
       <c r="U30" t="n">
-        <v>0.5234375</v>
+        <v>0.59375</v>
       </c>
       <c r="V30" t="n">
-        <v>0.59375</v>
+        <v>0.4375</v>
       </c>
       <c r="W30" t="n">
-        <v>0.4375</v>
+        <v>0.5703125</v>
       </c>
       <c r="X30" t="n">
-        <v>0.5703125</v>
+        <v>0.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Z30" t="n">
         <v>0.6328125</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0.4140625</v>
       </c>
     </row>
     <row r="31">
@@ -3085,37 +2903,31 @@
         <v>0.515625</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.515625</v>
+        <v>0.546875</v>
       </c>
       <c r="R31" t="n">
-        <v>0.546875</v>
+        <v>0.6171875</v>
       </c>
       <c r="S31" t="n">
-        <v>0.6171875</v>
+        <v>0.5078125</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5078125</v>
+        <v>0.5234375</v>
       </c>
       <c r="U31" t="n">
-        <v>0.5234375</v>
+        <v>0.46875</v>
       </c>
       <c r="V31" t="n">
-        <v>0.46875</v>
+        <v>0.5390625</v>
       </c>
       <c r="W31" t="n">
-        <v>0.5390625</v>
+        <v>0.4609375</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4609375</v>
+        <v>0.5078125</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="Z31" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>0.5390625</v>
       </c>
     </row>
   </sheetData>

--- a/CNIntelligibility/transposedIntelligibility_simhash.xlsx
+++ b/CNIntelligibility/transposedIntelligibility_simhash.xlsx
@@ -563,2052 +563,2052 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>01-21377035</t>
+          <t>01-22377201</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6171875</v>
+        <v>0.6875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5546875</v>
+        <v>0.5234375</v>
       </c>
       <c r="D2" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7734375</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0.5625</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.3671875</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.5859375</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.5078125</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>02-22377202</t>
+          <t>02-22377333</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8515625</v>
+        <v>0.78125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.546875</v>
+        <v>0.5859375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6171875</v>
+        <v>0.6015625</v>
       </c>
       <c r="E3" t="n">
         <v>0.53125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6640625</v>
+        <v>0.609375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.46875</v>
+        <v>0.4609375</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4765625</v>
+        <v>0.546875</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4609375</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5625</v>
+        <v>0.6015625</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.5234375</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4453125</v>
+        <v>0.578125</v>
       </c>
       <c r="M3" t="n">
-        <v>0.578125</v>
+        <v>0.5234375</v>
       </c>
       <c r="N3" t="n">
         <v>0.78125</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4296875</v>
+        <v>0.484375</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5078125</v>
+        <v>0.4921875</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.421875</v>
+        <v>0.5703125</v>
       </c>
       <c r="R3" t="n">
-        <v>0.46875</v>
+        <v>0.5703125</v>
       </c>
       <c r="S3" t="n">
-        <v>0.46875</v>
+        <v>0.484375</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3828125</v>
+        <v>0.6015625</v>
       </c>
       <c r="U3" t="n">
-        <v>0.765625</v>
+        <v>0.546875</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5078125</v>
+        <v>0.5546875</v>
       </c>
       <c r="W3" t="n">
-        <v>0.453125</v>
+        <v>0.4921875</v>
       </c>
       <c r="X3" t="n">
-        <v>0.5546875</v>
+        <v>0.71875</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5546875</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>03-21377053</t>
+          <t>03-21377348</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.390625</v>
+        <v>0.5546875</v>
       </c>
       <c r="C4" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.4609375</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.546875</v>
-      </c>
       <c r="E4" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8828125</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.5546875</v>
       </c>
-      <c r="F4" t="n">
-        <v>0.6796875</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.75</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.5078125</v>
+        <v>0.4921875</v>
       </c>
       <c r="I4" t="n">
-        <v>0.765625</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4765625</v>
+        <v>0.5859375</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5390625</v>
+        <v>0.5546875</v>
       </c>
       <c r="L4" t="n">
-        <v>0.453125</v>
+        <v>0.6015625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.703125</v>
+        <v>0.9296875</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7109375</v>
+        <v>0.8125</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4609375</v>
+        <v>0.5703125</v>
       </c>
       <c r="P4" t="n">
-        <v>0.53125</v>
+        <v>0.6171875</v>
       </c>
       <c r="Q4" t="n">
         <v>0.5390625</v>
       </c>
       <c r="R4" t="n">
-        <v>0.53125</v>
+        <v>0.5</v>
       </c>
       <c r="S4" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="V4" t="n">
         <v>0.4921875</v>
       </c>
-      <c r="T4" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.3828125</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.5859375</v>
-      </c>
       <c r="W4" t="n">
-        <v>0.6015625</v>
+        <v>0.53125</v>
       </c>
       <c r="X4" t="n">
-        <v>0.78125</v>
+        <v>0.7421875</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5078125</v>
+        <v>0.578125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>04-21377256</t>
+          <t>04-21379216</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.4609375</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7578125</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6640625</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.453125</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.6328125</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="X5" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.5078125</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0.578125</v>
+        <v>0.5078125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>05-21377006</t>
+          <t>05-21377151</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.515625</v>
+        <v>0.421875</v>
       </c>
       <c r="C6" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.6171875</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6015625</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.578125</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6171875</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.515625</v>
-      </c>
       <c r="L6" t="n">
-        <v>0.5078125</v>
+        <v>0.40625</v>
       </c>
       <c r="M6" t="n">
-        <v>0.546875</v>
+        <v>0.7890625</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8125</v>
+        <v>0.8515625</v>
       </c>
       <c r="O6" t="n">
-        <v>0.53125</v>
+        <v>0.5078125</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4609375</v>
+        <v>0.546875</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.578125</v>
+        <v>0.453125</v>
       </c>
       <c r="R6" t="n">
-        <v>0.5859375</v>
+        <v>0.78125</v>
       </c>
       <c r="S6" t="n">
-        <v>0.453125</v>
+        <v>0.5625</v>
       </c>
       <c r="T6" t="n">
-        <v>0.5234375</v>
+        <v>0.5</v>
       </c>
       <c r="U6" t="n">
         <v>0.578125</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5078125</v>
+        <v>0.5625</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7109375</v>
+        <v>0.53125</v>
       </c>
       <c r="X6" t="n">
-        <v>0.46875</v>
+        <v>0.5078125</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5390625</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>06-21377242</t>
+          <t>06-21377076</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.5234375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5546875</v>
+        <v>0.7421875</v>
       </c>
       <c r="D7" t="n">
         <v>0.4609375</v>
       </c>
       <c r="E7" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.453125</v>
       </c>
-      <c r="F7" t="n">
+      <c r="K7" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.4921875</v>
       </c>
-      <c r="G7" t="n">
+      <c r="M7" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="N7" t="n">
         <v>0.5703125</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.7265625</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="O7" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="V7" t="n">
         <v>0.6015625</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.7734375</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.6171875</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.46875</v>
-      </c>
       <c r="W7" t="n">
-        <v>0.4609375</v>
+        <v>0.515625</v>
       </c>
       <c r="X7" t="n">
-        <v>0.4609375</v>
+        <v>0.4921875</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.46875</v>
+        <v>0.5234375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>07-sy2308207</t>
+          <t>07-21377259</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0.5234375</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7890625</v>
+        <v>0.7421875</v>
       </c>
       <c r="D8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.5</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.609375</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7578125</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="N8" t="n">
         <v>0.484375</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
+        <v>0.7734375</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="Q8" t="n">
         <v>0.4921875</v>
       </c>
-      <c r="O8" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.3984375</v>
-      </c>
       <c r="R8" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="S8" t="n">
         <v>0.59375</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.5625</v>
-      </c>
       <c r="T8" t="n">
-        <v>0.4921875</v>
+        <v>0.625</v>
       </c>
       <c r="U8" t="n">
-        <v>0.546875</v>
+        <v>0.46875</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5234375</v>
+        <v>0.640625</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5390625</v>
+        <v>0.46875</v>
       </c>
       <c r="X8" t="n">
-        <v>0.5546875</v>
+        <v>0.5234375</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6953125</v>
+        <v>0.6796875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>08-21377175</t>
+          <t>08-y2342116</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5078125</v>
+        <v>0.4921875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4765625</v>
+        <v>0.5234375</v>
       </c>
       <c r="D9" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.4609375</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
+        <v>0.8046875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.7265625</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.921875</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.859375</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="X9" t="n">
         <v>0.609375</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="Y9" t="n">
         <v>0.59375</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.7265625</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.609375</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.578125</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.65625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>09-21377163</t>
+          <t>09-21377174</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.484375</v>
+        <v>0.515625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4609375</v>
+        <v>0.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5546875</v>
+        <v>0.53125</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4375</v>
+        <v>0.6171875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.46875</v>
+        <v>0.65625</v>
       </c>
       <c r="G10" t="n">
-        <v>0.53125</v>
+        <v>0.5390625</v>
       </c>
       <c r="H10" t="n">
-        <v>0.734375</v>
+        <v>0.8359375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.390625</v>
+        <v>0.625</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4921875</v>
+        <v>0.53125</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5234375</v>
+        <v>0.515625</v>
       </c>
       <c r="L10" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5078125</v>
+        <v>0.5</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4375</v>
+        <v>0.5234375</v>
       </c>
       <c r="O10" t="n">
-        <v>0.703125</v>
+        <v>0.5234375</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6015625</v>
+        <v>0.609375</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4609375</v>
+        <v>0.6484375</v>
       </c>
       <c r="S10" t="n">
-        <v>0.734375</v>
+        <v>0.5390625</v>
       </c>
       <c r="T10" t="n">
-        <v>0.421875</v>
+        <v>0.546875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.53125</v>
+        <v>0.5078125</v>
       </c>
       <c r="V10" t="n">
-        <v>0.609375</v>
+        <v>0.4765625</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5</v>
+        <v>0.5390625</v>
       </c>
       <c r="X10" t="n">
-        <v>0.515625</v>
+        <v>0.59375</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.6328125</v>
+        <v>0.7734375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>10-sy2308220</t>
+          <t>10-21377335</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.46875</v>
+        <v>0.59375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5078125</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5546875</v>
+        <v>0.4921875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5625</v>
+        <v>0.625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.578125</v>
+        <v>0.59375</v>
       </c>
       <c r="G11" t="n">
-        <v>0.53125</v>
+        <v>0.625</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4609375</v>
+        <v>0.6171875</v>
       </c>
       <c r="I11" t="n">
         <v>0.453125</v>
       </c>
       <c r="J11" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="N11" t="n">
         <v>0.578125</v>
       </c>
-      <c r="K11" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.6328125</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.5078125</v>
-      </c>
       <c r="O11" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.625</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.4609375</v>
-      </c>
       <c r="T11" t="n">
-        <v>0.4765625</v>
+        <v>0.5703125</v>
       </c>
       <c r="U11" t="n">
-        <v>0.71875</v>
+        <v>0.84375</v>
       </c>
       <c r="V11" t="n">
-        <v>0.734375</v>
+        <v>0.578125</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5234375</v>
+        <v>0.515625</v>
       </c>
       <c r="X11" t="n">
-        <v>0.4765625</v>
+        <v>0.546875</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.78125</v>
+        <v>0.8203125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>11-22377339</t>
+          <t>11-21377187</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3984375</v>
+        <v>0.5390625</v>
       </c>
       <c r="C12" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.4765625</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="K12" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="X12" t="n">
         <v>0.4609375</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.6484375</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.609375</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.8125</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.5859375</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="Y12" t="n">
         <v>0.6796875</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.3984375</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.546875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>12-20377292</t>
+          <t>12-22377142</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.53125</v>
+        <v>0.7578125</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5234375</v>
+        <v>0.6015625</v>
       </c>
       <c r="D13" t="n">
         <v>0.6484375</v>
       </c>
       <c r="E13" t="n">
-        <v>0.40625</v>
+        <v>0.4296875</v>
       </c>
       <c r="F13" t="n">
-        <v>0.46875</v>
+        <v>0.5078125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.578125</v>
+        <v>0.78125</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5234375</v>
+        <v>0.4609375</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5078125</v>
+        <v>0.53125</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5859375</v>
+        <v>0.4609375</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4296875</v>
+        <v>0.6484375</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6875</v>
+        <v>0.734375</v>
       </c>
       <c r="M13" t="n">
         <v>0.484375</v>
       </c>
       <c r="N13" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.7265625</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.46875</v>
       </c>
-      <c r="O13" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.3671875</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.546875</v>
-      </c>
       <c r="R13" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="S13" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.53125</v>
-      </c>
       <c r="T13" t="n">
-        <v>0.640625</v>
+        <v>0.59375</v>
       </c>
       <c r="U13" t="n">
-        <v>0.515625</v>
+        <v>0.6796875</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5078125</v>
+        <v>0.4609375</v>
       </c>
       <c r="W13" t="n">
-        <v>0.4921875</v>
+        <v>0.546875</v>
       </c>
       <c r="X13" t="n">
-        <v>0.4296875</v>
+        <v>0.5078125</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4609375</v>
+        <v>0.546875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>13-20377387</t>
+          <t>13-21377181</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.671875</v>
+        <v>0.5859375</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5078125</v>
+        <v>0.4609375</v>
       </c>
       <c r="D14" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="R14" t="n">
         <v>0.6328125</v>
       </c>
-      <c r="E14" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.6171875</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.609375</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.40625</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.6953125</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.6484375</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S14" t="n">
-        <v>0.5625</v>
+        <v>0.484375</v>
       </c>
       <c r="T14" t="n">
-        <v>0.6015625</v>
+        <v>0.453125</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8203125</v>
+        <v>0.734375</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5546875</v>
+        <v>0.484375</v>
       </c>
       <c r="W14" t="n">
-        <v>0.6875</v>
+        <v>0.8984375</v>
       </c>
       <c r="X14" t="n">
-        <v>0.5625</v>
+        <v>0.5703125</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.5390625</v>
+        <v>0.453125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>14-20377359</t>
+          <t>14-21377369</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4765625</v>
+        <v>0.421875</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4765625</v>
+        <v>0.65625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6328125</v>
+        <v>0.609375</v>
       </c>
       <c r="E15" t="n">
-        <v>0.40625</v>
+        <v>0.5234375</v>
       </c>
       <c r="F15" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="G15" t="n">
+      <c r="N15" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.6015625</v>
       </c>
-      <c r="H15" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="Q15" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.796875</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.5625</v>
       </c>
-      <c r="J15" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.5859375</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.578125</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.5859375</v>
-      </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>0.5703125</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.5625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>15-BY2308108</t>
+          <t>15-22377053</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.546875</v>
+        <v>0.578125</v>
       </c>
       <c r="C16" t="n">
-        <v>0.546875</v>
+        <v>0.6015625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.78125</v>
+        <v>0.5390625</v>
       </c>
       <c r="E16" t="n">
+        <v>0.3984375</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.65625</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.4140625</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.796875</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="F16" t="n">
+      <c r="R16" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="W16" t="n">
         <v>0.6328125</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.3984375</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.6484375</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.7265625</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.609375</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.6328125</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.3984375</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0.59375</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.4765625</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>16-by2308145</t>
+          <t>16-22377084</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.390625</v>
+        <v>0.515625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.484375</v>
+        <v>0.6015625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.484375</v>
+        <v>0.5546875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5703125</v>
+        <v>0.546875</v>
       </c>
       <c r="F17" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.59375</v>
       </c>
-      <c r="G17" t="n">
-        <v>0.4296875</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.46875</v>
-      </c>
       <c r="I17" t="n">
-        <v>0.6015625</v>
+        <v>0.6953125</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7109375</v>
+        <v>0.5078125</v>
       </c>
       <c r="K17" t="n">
         <v>0.5625</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5703125</v>
+        <v>0.5078125</v>
       </c>
       <c r="M17" t="n">
-        <v>0.578125</v>
+        <v>0.5625</v>
       </c>
       <c r="N17" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.5859375</v>
       </c>
-      <c r="O17" t="n">
-        <v>0.40625</v>
-      </c>
       <c r="P17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.7109375</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="S17" t="n">
         <v>0.4765625</v>
       </c>
-      <c r="Q17" t="n">
-        <v>0.6328125</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
+        <v>0.4140625</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.7421875</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="Y17" t="n">
         <v>0.4921875</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.9296875</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.484375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>17-zy2308131</t>
+          <t>17-21377185</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.546875</v>
+        <v>0.46875</v>
       </c>
       <c r="C18" t="n">
         <v>0.6015625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5625</v>
+        <v>0.546875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4921875</v>
+        <v>0.625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>0.6015625</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4296875</v>
+        <v>0.46875</v>
       </c>
       <c r="H18" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6953125</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.4453125</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.8203125</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="X18" t="n">
         <v>0.515625</v>
       </c>
-      <c r="I18" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.640625</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="Y18" t="n">
         <v>0.515625</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.640625</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.578125</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.5625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>18-BY2308106</t>
+          <t>18-21377184</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.578125</v>
+        <v>0.515625</v>
       </c>
       <c r="C19" t="n">
         <v>0.5859375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.59375</v>
+        <v>0.453125</v>
       </c>
       <c r="E19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.515625</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.5078125</v>
-      </c>
       <c r="I19" t="n">
-        <v>0.640625</v>
+        <v>0.7578125</v>
       </c>
       <c r="J19" t="n">
-        <v>0.6015625</v>
+        <v>0.7421875</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5625</v>
+        <v>0.578125</v>
       </c>
       <c r="L19" t="n">
-        <v>0.515625</v>
+        <v>0.484375</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6328125</v>
+        <v>0.4921875</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5234375</v>
+        <v>0.53125</v>
       </c>
       <c r="O19" t="n">
-        <v>0.484375</v>
+        <v>0.4609375</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5546875</v>
+        <v>0.5390625</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4296875</v>
+        <v>0.6796875</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5390625</v>
+        <v>0.609375</v>
       </c>
       <c r="S19" t="n">
-        <v>0.59375</v>
+        <v>0.65625</v>
       </c>
       <c r="T19" t="n">
-        <v>0.484375</v>
+        <v>0.53125</v>
       </c>
       <c r="U19" t="n">
         <v>0.5390625</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6328125</v>
+        <v>0.4921875</v>
       </c>
       <c r="W19" t="n">
-        <v>0.5859375</v>
+        <v>0.5</v>
       </c>
       <c r="X19" t="n">
-        <v>0.53125</v>
+        <v>0.4765625</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.5078125</v>
+        <v>0.609375</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>19-BY2308111</t>
+          <t>19-y2314202</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0.46875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.484375</v>
+        <v>0.453125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5546875</v>
+        <v>0.609375</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5546875</v>
+        <v>0.5078125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5078125</v>
+        <v>0.4609375</v>
       </c>
       <c r="G20" t="n">
-        <v>0.53125</v>
+        <v>0.6015625</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5234375</v>
+        <v>0.53125</v>
       </c>
       <c r="I20" t="n">
-        <v>0.796875</v>
+        <v>0.65625</v>
       </c>
       <c r="J20" t="n">
+        <v>0.703125</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.4140625</v>
       </c>
-      <c r="K20" t="n">
-        <v>0.5</v>
-      </c>
       <c r="L20" t="n">
-        <v>0.5</v>
+        <v>0.5390625</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3984375</v>
+        <v>0.546875</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4921875</v>
+        <v>0.640625</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6484375</v>
+        <v>0.703125</v>
       </c>
       <c r="Q20" t="n">
         <v>0.5390625</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6015625</v>
+        <v>0.59375</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6875</v>
+        <v>0.7421875</v>
       </c>
       <c r="T20" t="n">
-        <v>0.5546875</v>
+        <v>0.484375</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4921875</v>
+        <v>0.515625</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6640625</v>
+        <v>0.5625</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5</v>
+        <v>0.4453125</v>
       </c>
       <c r="X20" t="n">
-        <v>0.546875</v>
+        <v>0.453125</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.484375</v>
+        <v>0.4765625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>20-ZY2207207</t>
+          <t>20-21377171</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.484375</v>
+        <v>0.4765625</v>
       </c>
       <c r="C21" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.4609375</v>
+      </c>
+      <c r="R21" t="n">
         <v>0.4921875</v>
       </c>
-      <c r="D21" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="S21" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="T21" t="n">
         <v>0.5703125</v>
       </c>
-      <c r="G21" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.609375</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.7265625</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0.65625</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.859375</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0.5390625</v>
-      </c>
       <c r="U21" t="n">
-        <v>0.5</v>
+        <v>0.59375</v>
       </c>
       <c r="V21" t="n">
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
       <c r="W21" t="n">
-        <v>0.5703125</v>
+        <v>0.5078125</v>
       </c>
       <c r="X21" t="n">
-        <v>0.5546875</v>
+        <v>0.53125</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.5703125</v>
+        <v>0.6015625</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>21-by2308134</t>
+          <t>21-22377260</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5859375</v>
+        <v>0.5234375</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4296875</v>
+        <v>0.53125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4765625</v>
+        <v>0.4921875</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
       <c r="F22" t="n">
-        <v>0.53125</v>
+        <v>0.609375</v>
       </c>
       <c r="G22" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.4453125</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.59375</v>
-      </c>
       <c r="I22" t="n">
-        <v>0.4453125</v>
+        <v>0.53125</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5390625</v>
+        <v>0.546875</v>
       </c>
       <c r="K22" t="n">
-        <v>0.640625</v>
+        <v>0.6796875</v>
       </c>
       <c r="L22" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.7109375</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="T22" t="n">
         <v>0.6171875</v>
       </c>
-      <c r="M22" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="N22" t="n">
+      <c r="U22" t="n">
         <v>0.5703125</v>
       </c>
-      <c r="O22" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0.703125</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.5390625</v>
-      </c>
       <c r="V22" t="n">
-        <v>0.75</v>
+        <v>0.765625</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4453125</v>
+        <v>0.5546875</v>
       </c>
       <c r="X22" t="n">
-        <v>0.6015625</v>
+        <v>0.5546875</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.625</v>
+        <v>0.6171875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>22-22377318</t>
+          <t>22-21377225</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.546875</v>
+        <v>0.578125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.484375</v>
+        <v>0.5234375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.546875</v>
+        <v>0.640625</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6875</v>
+        <v>0.6171875</v>
       </c>
       <c r="F23" t="n">
-        <v>0.53125</v>
+        <v>0.515625</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4375</v>
+        <v>0.6328125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.75</v>
+        <v>0.546875</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4609375</v>
+        <v>0.546875</v>
       </c>
       <c r="J23" t="n">
-        <v>0.59375</v>
+        <v>0.546875</v>
       </c>
       <c r="K23" t="n">
-        <v>0.65625</v>
+        <v>0.765625</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5234375</v>
+        <v>0.53125</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5390625</v>
+        <v>0.5078125</v>
       </c>
       <c r="N23" t="n">
-        <v>0.4765625</v>
+        <v>0.578125</v>
       </c>
       <c r="O23" t="n">
-        <v>0.59375</v>
+        <v>0.609375</v>
       </c>
       <c r="P23" t="n">
-        <v>0.7734375</v>
+        <v>0.5625</v>
       </c>
       <c r="Q23" t="n">
         <v>0.515625</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4375</v>
+        <v>0.4765625</v>
       </c>
       <c r="S23" t="n">
-        <v>0.484375</v>
+        <v>0.4921875</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7421875</v>
+        <v>0.59375</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4921875</v>
+        <v>0.5390625</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3984375</v>
+        <v>0.6015625</v>
       </c>
       <c r="W23" t="n">
-        <v>0.5078125</v>
+        <v>0.5625</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5703125</v>
+        <v>0.5234375</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4765625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>23-21377298</t>
+          <t>23-22377206</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.6328125</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.7421875</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.46875</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.5859375</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.421875</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.765625</v>
-      </c>
       <c r="L24" t="n">
-        <v>0.625</v>
+        <v>0.546875</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5234375</v>
+        <v>0.6015625</v>
       </c>
       <c r="N24" t="n">
-        <v>0.59375</v>
+        <v>0.5078125</v>
       </c>
       <c r="O24" t="n">
         <v>0.4609375</v>
       </c>
       <c r="P24" t="n">
-        <v>0.4609375</v>
+        <v>0.5859375</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.4453125</v>
+        <v>0.578125</v>
       </c>
       <c r="R24" t="n">
-        <v>0.4921875</v>
+        <v>0.453125</v>
       </c>
       <c r="S24" t="n">
-        <v>0.53125</v>
+        <v>0.5234375</v>
       </c>
       <c r="T24" t="n">
-        <v>0.609375</v>
+        <v>0.6171875</v>
       </c>
       <c r="U24" t="n">
-        <v>0.4765625</v>
+        <v>0.6015625</v>
       </c>
       <c r="V24" t="n">
-        <v>0.546875</v>
+        <v>0.5078125</v>
       </c>
       <c r="W24" t="n">
-        <v>0.59375</v>
+        <v>0.5859375</v>
       </c>
       <c r="X24" t="n">
-        <v>0.5859375</v>
+        <v>0.5078125</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.46875</v>
+        <v>0.4296875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>24-BY2308103</t>
+          <t>24-21377003</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.6640625</v>
+        <v>0.65625</v>
       </c>
       <c r="C25" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6171875</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O25" t="n">
         <v>0.5625</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.7421875</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.4609375</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.8046875</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.6953125</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="X25" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="O25" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.4296875</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.625</v>
-      </c>
       <c r="Y25" t="n">
-        <v>0.4609375</v>
+        <v>0.546875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>25-SY2308310</t>
+          <t>25-22377028</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5625</v>
+        <v>0.7890625</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5546875</v>
+        <v>0.4765625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.53125</v>
+        <v>0.5703125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4296875</v>
+        <v>0.5703125</v>
       </c>
       <c r="F26" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.6640625</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.640625</v>
-      </c>
       <c r="H26" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.7578125</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4453125</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="M26" t="n">
         <v>0.5</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.5859375</v>
       </c>
       <c r="N26" t="n">
         <v>0.484375</v>
       </c>
       <c r="O26" t="n">
-        <v>0.40625</v>
+        <v>0.5078125</v>
       </c>
       <c r="P26" t="n">
-        <v>0.5078125</v>
+        <v>0.484375</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.515625</v>
+        <v>0.5703125</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4375</v>
+        <v>0.4609375</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4609375</v>
+        <v>0.6171875</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8203125</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>0.5078125</v>
+        <v>0.4765625</v>
       </c>
       <c r="V26" t="n">
-        <v>0.546875</v>
+        <v>0.5625</v>
       </c>
       <c r="W26" t="n">
-        <v>0.5078125</v>
+        <v>0.546875</v>
       </c>
       <c r="X26" t="n">
-        <v>0.5703125</v>
+        <v>0.65625</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.53125</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>26-22374085</t>
+          <t>26-22377005</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.65625</v>
+        <v>0.7421875</v>
       </c>
       <c r="C27" t="n">
-        <v>0.59375</v>
+        <v>0.546875</v>
       </c>
       <c r="D27" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="P27" t="n">
         <v>0.6015625</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.6640625</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.53125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4140625</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.6796875</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.4453125</v>
       </c>
       <c r="Q27" t="n">
         <v>0.515625</v>
       </c>
       <c r="R27" t="n">
+        <v>0.5390625</v>
+      </c>
+      <c r="S27" t="n">
         <v>0.4609375</v>
       </c>
-      <c r="S27" t="n">
-        <v>0.515625</v>
-      </c>
       <c r="T27" t="n">
-        <v>0.53125</v>
+        <v>0.6484375</v>
       </c>
       <c r="U27" t="n">
-        <v>0.53125</v>
+        <v>0.5625</v>
       </c>
       <c r="V27" t="n">
-        <v>0.4921875</v>
+        <v>0.59375</v>
       </c>
       <c r="W27" t="n">
-        <v>0.5625</v>
+        <v>0.59375</v>
       </c>
       <c r="X27" t="n">
-        <v>0.671875</v>
+        <v>0.6796875</v>
       </c>
       <c r="Y27" t="n">
         <v>0.5234375</v>
@@ -2617,317 +2617,317 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>27-22377099</t>
+          <t>27-21377255</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4453125</v>
+        <v>0.5234375</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4453125</v>
+        <v>0.515625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4375</v>
+        <v>0.5390625</v>
       </c>
       <c r="E28" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7265625</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.609375</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5859375</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.484375</v>
       </c>
-      <c r="F28" t="n">
-        <v>0.6328125</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.4453125</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.4140625</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.5625</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.4921875</v>
-      </c>
       <c r="M28" t="n">
-        <v>0.7265625</v>
+        <v>0.578125</v>
       </c>
       <c r="N28" t="n">
         <v>0.6171875</v>
       </c>
       <c r="O28" t="n">
-        <v>0.5703125</v>
+        <v>0.53125</v>
       </c>
       <c r="P28" t="n">
-        <v>0.5546875</v>
+        <v>0.546875</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.515625</v>
+        <v>0.6015625</v>
       </c>
       <c r="R28" t="n">
-        <v>0.5078125</v>
+        <v>0.53125</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4609375</v>
+        <v>0.59375</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5546875</v>
+        <v>0.4765625</v>
       </c>
       <c r="U28" t="n">
-        <v>0.453125</v>
+        <v>0.5234375</v>
       </c>
       <c r="V28" t="n">
-        <v>0.515625</v>
+        <v>0.5078125</v>
       </c>
       <c r="W28" t="n">
-        <v>0.609375</v>
+        <v>0.6640625</v>
       </c>
       <c r="X28" t="n">
-        <v>0.7578125</v>
+        <v>0.8828125</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.4921875</v>
+        <v>0.5859375</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>28-21377086</t>
+          <t>28-21081004</t>
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0.578125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.5546875</v>
       </c>
-      <c r="C29" t="n">
-        <v>0.71875</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.546875</v>
-      </c>
       <c r="F29" t="n">
-        <v>0.921875</v>
+        <v>0.546875</v>
       </c>
       <c r="G29" t="n">
-        <v>0.40625</v>
+        <v>0.53125</v>
       </c>
       <c r="H29" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.515625</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.734375</v>
+      </c>
+      <c r="O29" t="n">
         <v>0.609375</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6171875</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="P29" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.5703125</v>
+      </c>
+      <c r="T29" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="L29" t="n">
+      <c r="U29" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="V29" t="n">
         <v>0.515625</v>
       </c>
-      <c r="M29" t="n">
-        <v>0.578125</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.6171875</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0.4921875</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0.5078125</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="W29" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="Y29" t="n">
         <v>0.4765625</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.5390625</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.453125</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.515625</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>29-21377061</t>
+          <t>29-21377119</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5234375</v>
+        <v>0.4453125</v>
       </c>
       <c r="C30" t="n">
-        <v>0.65625</v>
+        <v>0.609375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3828125</v>
+        <v>0.546875</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5078125</v>
+        <v>0.5</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4765625</v>
+        <v>0.546875</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4765625</v>
+        <v>0.515625</v>
       </c>
       <c r="H30" t="n">
-        <v>0.640625</v>
+        <v>0.46875</v>
       </c>
       <c r="I30" t="n">
-        <v>0.5234375</v>
+        <v>0.53125</v>
       </c>
       <c r="J30" t="n">
-        <v>0.640625</v>
+        <v>0.546875</v>
       </c>
       <c r="K30" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.6796875</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.484375</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.59375</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.4296875</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="Y30" t="n">
         <v>0.4921875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0.84375</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0.578125</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0.59375</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.5703125</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0.6328125</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>30-21377172</t>
+          <t>30-y2314105</t>
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0.5546875</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8515625</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.4921875</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.5390625</v>
       </c>
-      <c r="C31" t="n">
+      <c r="G31" t="n">
+        <v>0.5078125</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.6640625</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.6015625</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.6484375</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.4765625</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.640625</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5234375</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="P31" t="n">
         <v>0.6171875</v>
       </c>
-      <c r="D31" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.484375</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="H31" t="n">
+      <c r="Q31" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="R31" t="n">
         <v>0.71875</v>
       </c>
-      <c r="I31" t="n">
-        <v>0.6953125</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5546875</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.5234375</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.828125</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0.4765625</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0.515625</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0.546875</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0.6171875</v>
-      </c>
       <c r="S31" t="n">
-        <v>0.5078125</v>
+        <v>0.5234375</v>
       </c>
       <c r="T31" t="n">
-        <v>0.5234375</v>
+        <v>0.546875</v>
       </c>
       <c r="U31" t="n">
-        <v>0.46875</v>
+        <v>0.640625</v>
       </c>
       <c r="V31" t="n">
         <v>0.5390625</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4609375</v>
+        <v>0.515625</v>
       </c>
       <c r="X31" t="n">
-        <v>0.5078125</v>
+        <v>0.484375</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
     </row>
   </sheetData>
